--- a/corpus/Words_Count.xlsx
+++ b/corpus/Words_Count.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="6">
   <si>
     <t>B_Slovo_Mytropolyta_Demytriia_Do_Pastvy_Uvecheri_Proshchenoi_Nedili_2013</t>
   </si>
@@ -33,6 +33,15 @@
   </si>
   <si>
     <t># of words</t>
+  </si>
+  <si>
+    <t>B_Propovid_Mytropolyta_Dymytriia_Pro_Zakheia_2013.txt</t>
+  </si>
+  <si>
+    <t>author</t>
+  </si>
+  <si>
+    <t>Mytropolyta_Demytrii</t>
   </si>
 </sst>
 </file>
@@ -351,34 +360,53 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="73" customWidth="1"/>
+    <col min="2" max="2" width="21.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>1</v>
       </c>
       <c r="B1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
-      <c r="B2">
+      <c r="B2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2">
         <v>815</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3">
+        <v>597</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
--- a/corpus/Words_Count.xlsx
+++ b/corpus/Words_Count.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="19">
   <si>
     <t>B_Slovo_Mytropolyta_Demytriia_Do_Pastvy_Uvecheri_Proshchenoi_Nedili_2013</t>
   </si>
@@ -41,15 +41,63 @@
     <t>author</t>
   </si>
   <si>
-    <t>Mytropolyta_Demytrii</t>
+    <t>B_Propovid_Mytropolyta_Dymytriia_U_Den_Sviata_Rizdva_Bogorodytzi_2013</t>
+  </si>
+  <si>
+    <t>Mytropolyt Demytrii</t>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
+    <t>B_Zvernennia_Tradytsiinyh_Ukr_Tserkov_2011</t>
+  </si>
+  <si>
+    <t>n/a</t>
+  </si>
+  <si>
+    <t>B_Slovo_Patriarha_Filareta_V_Nedilu_Siropusnu_2013</t>
+  </si>
+  <si>
+    <t>Patriarh Filaret</t>
+  </si>
+  <si>
+    <t>year</t>
+  </si>
+  <si>
+    <t>Must be</t>
+  </si>
+  <si>
+    <t>3%*500000</t>
+  </si>
+  <si>
+    <t>B_Vitalii_Lototskii_Den_Narodzhennia_Hrysta_2013</t>
+  </si>
+  <si>
+    <t>Vitalii_Lototskii</t>
+  </si>
+  <si>
+    <t>B_Mykola_Marusiak_Pro_Pokaiannia_2013</t>
+  </si>
+  <si>
+    <t>Mykola_Marusiak</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -78,8 +126,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -360,19 +409,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:D24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="73" customWidth="1"/>
-    <col min="2" max="2" width="21.7109375" customWidth="1"/>
+    <col min="2" max="3" width="21.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -380,29 +429,128 @@
         <v>4</v>
       </c>
       <c r="C1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C2">
+        <v>2013</v>
+      </c>
+      <c r="D2">
         <v>815</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>3</v>
       </c>
       <c r="B3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3">
+        <v>2013</v>
+      </c>
+      <c r="D3">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
         <v>5</v>
       </c>
-      <c r="C3">
-        <v>597</v>
+      <c r="B4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4">
+        <v>2013</v>
+      </c>
+      <c r="D4">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5">
+        <v>2011</v>
+      </c>
+      <c r="D5">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6">
+        <v>2013</v>
+      </c>
+      <c r="D6">
+        <v>1124</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7">
+        <v>2013</v>
+      </c>
+      <c r="D7">
+        <v>1171</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>17</v>
+      </c>
+      <c r="B8" t="s">
+        <v>18</v>
+      </c>
+      <c r="C8">
+        <v>2013</v>
+      </c>
+      <c r="D8">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="23" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B23" t="s">
+        <v>7</v>
+      </c>
+      <c r="D23">
+        <f>SUM(D2:D22)</f>
+        <v>5639</v>
+      </c>
+    </row>
+    <row r="24" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B24" t="s">
+        <v>13</v>
+      </c>
+      <c r="C24" t="s">
+        <v>14</v>
+      </c>
+      <c r="D24">
+        <v>15000</v>
       </c>
     </row>
   </sheetData>

--- a/corpus/Words_Count.xlsx
+++ b/corpus/Words_Count.xlsx
@@ -1,21 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\LT-PROJECT\corpus\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="20412"/>
+  <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20500" windowHeight="7760"/>
   </bookViews>
   <sheets>
     <sheet name="B" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
@@ -189,7 +187,7 @@
     </a:clrScheme>
     <a:fontScheme name="Стандартная">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -224,7 +222,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -401,7 +399,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -411,17 +409,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="73" customWidth="1"/>
-    <col min="2" max="3" width="21.7109375" customWidth="1"/>
+    <col min="2" max="3" width="21.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -435,7 +433,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -449,7 +447,7 @@
         <v>815</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -463,7 +461,7 @@
         <v>597</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -477,7 +475,7 @@
         <v>625</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -491,7 +489,7 @@
         <v>697</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4">
       <c r="A6" t="s">
         <v>10</v>
       </c>
@@ -505,7 +503,7 @@
         <v>1124</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4">
       <c r="A7" t="s">
         <v>15</v>
       </c>
@@ -519,7 +517,7 @@
         <v>1171</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4">
       <c r="A8" t="s">
         <v>17</v>
       </c>
@@ -533,7 +531,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="23" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:4">
       <c r="B23" t="s">
         <v>7</v>
       </c>
@@ -542,7 +540,7 @@
         <v>5639</v>
       </c>
     </row>
-    <row r="24" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:4">
       <c r="B24" t="s">
         <v>13</v>
       </c>
@@ -555,6 +553,10 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>